--- a/output/uxui-mad-sep-matching.xlsx
+++ b/output/uxui-mad-sep-matching.xlsx
@@ -426,11 +426,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yassir Elmalaki Hossain</t>
+          <t>Cristina Saldaña Gonzalvo</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.53</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -439,7 +439,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Experience fighters</t>
+          <t>Thiga</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -447,11 +447,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Laura García Diéguez</t>
+          <t>Yassir Elmalaki Hossain</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.38</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -460,7 +460,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bkool </t>
+          <t>Experience fighters</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -468,11 +468,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Celina Bonilla Martín</t>
+          <t>Laura García Diéguez</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.55</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -489,11 +489,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Miguel Durán Pardo</t>
+          <t>Celina Bonilla Martín</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liferay</t>
+          <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -510,11 +510,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Miguel Ángel Garrido Casado</t>
+          <t>Miguel Durán Pardo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Varadero Software Factory</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -531,11 +531,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
+          <t>Miguel Ángel Garrido Casado</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.25</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="9">
@@ -544,7 +544,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Thiga</t>
+          <t>TaxDown</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -552,11 +552,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
+          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="10">
@@ -565,7 +565,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -573,11 +573,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Blanca Salgado Zapata</t>
+          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.59</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="11">
@@ -586,7 +586,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t xml:space="preserve">Bkool </t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -594,11 +594,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Roberto Rodríguez Gijón</t>
+          <t>Blanca Salgado Zapata</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.23</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="12">
@@ -607,7 +607,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Varadero Software Factory</t>
+          <t>Liferay</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -615,11 +615,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Carlos Rodrigo Ochoa Aedo</t>
+          <t>Roberto Rodríguez Gijón</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13">
@@ -628,7 +628,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Flat 101</t>
+          <t xml:space="preserve">SOTEC </t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -636,11 +636,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
+          <t>Bismilah Langford Fuejo</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="14">
@@ -657,11 +657,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Blanca Salgado Zapata</t>
+          <t>Carlos Rodrigo Ochoa Aedo</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.6</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="15">
@@ -670,7 +670,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t xml:space="preserve">Bkool </t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -678,11 +678,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Roberto Rodríguez Gijón</t>
+          <t>Víctor Camargo Reguera</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="16">
@@ -691,7 +691,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Experience fighters</t>
+          <t>TaxDown</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -699,11 +699,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bismilah Langford Fuejo</t>
+          <t>Heiko Vivas Molina</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="17">
@@ -712,7 +712,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bkool </t>
+          <t>Flat 101</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -720,11 +720,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Carlos Rodrigo Ochoa Aedo</t>
+          <t>Adrian Colinas fernandez</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.39</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="18">
@@ -733,7 +733,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Varadero Software Factory</t>
+          <t>Experience fighters</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -741,11 +741,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Víctor Camargo Reguera</t>
+          <t>Cristina Martínez Fernández</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="19">
@@ -754,7 +754,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOTEC </t>
+          <t>Varadero Software Factory</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -762,11 +762,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Heiko Vivas Molina</t>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20">
@@ -775,7 +775,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liferay</t>
+          <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -783,11 +783,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Adrian Colinas fernandez</t>
+          <t>David Pérez</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="21">
@@ -804,11 +804,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cristina Martínez Fernández</t>
+          <t>Nora Gloria Carnevale Lois</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="22">
@@ -817,7 +817,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t>Thiga</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -825,11 +825,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>David Pérez</t>
+          <t>Cristina Saldaña Gonzalvo</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="23">
@@ -838,7 +838,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Thiga</t>
+          <t>Liferay</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -846,11 +846,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cristina Saldaña Gonzalvo</t>
+          <t>Laura García Diéguez</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="24">
@@ -859,7 +859,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Flat 101</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -867,11 +867,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
+          <t>David Pérez</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.34</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="25">
@@ -880,7 +880,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Thiga</t>
+          <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -888,11 +888,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cristina Martínez Fernández</t>
+          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.39</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="26">
@@ -901,7 +901,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Experience fighters</t>
+          <t>Liferay</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -909,11 +909,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cristina Saldaña Gonzalvo</t>
+          <t>Yassir Elmalaki Hossain</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27">
@@ -922,7 +922,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -930,11 +930,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Yassir Elmalaki Hossain</t>
+          <t>Cristina Saldaña Gonzalvo</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="28">
@@ -943,7 +943,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t>Thiga</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -951,11 +951,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Laura García Diéguez</t>
+          <t>Nora Gloria Carnevale Lois</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.33</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="29">
@@ -964,7 +964,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t>TaxDown</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.37</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="30">
@@ -985,7 +985,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOTEC </t>
+          <t>Varadero Software Factory</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -993,11 +993,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Miguel Ángel Garrido Casado</t>
+          <t>Laura García Diéguez</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="31">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Liferay</t>
+          <t>Flat 101</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1014,11 +1014,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
+          <t>Celina Bonilla Martín</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.37</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32">
@@ -1035,11 +1035,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Blanca Salgado Zapata</t>
+          <t>Miguel Ángel Garrido Casado</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Varadero Software Factory</t>
+          <t xml:space="preserve">SOTEC </t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1056,11 +1056,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Roberto Rodríguez Gijón</t>
+          <t>Blanca Salgado Zapata</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="34">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Experience fighters</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1077,11 +1077,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bismilah Langford Fuejo</t>
+          <t>Roberto Rodríguez Gijón</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.41</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="35">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Flat 101</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1098,11 +1098,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cristina Saldaña Gonzalvo</t>
+          <t>Yassir Elmalaki Hossain</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.98</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t>Experience fighters</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1119,11 +1119,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Carlos Rodrigo Ochoa Aedo</t>
+          <t>Celina Bonilla Martín</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="37">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Liferay</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>David Pérez</t>
+          <t>Miguel Durán Pardo</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="38">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t xml:space="preserve">SOTEC </t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1161,11 +1161,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Adrian Colinas fernandez</t>
+          <t>Miguel Ángel Garrido Casado</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="39">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Thiga</t>
+          <t xml:space="preserve">Bkool </t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Celina Bonilla Martín</t>
+          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.61</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="40">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1203,11 +1203,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Yassir Elmalaki Hossain</t>
+          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.98</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="41">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Varadero Software Factory</t>
+          <t>TaxDown</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1224,11 +1224,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bismilah Langford Fuejo</t>
+          <t>Blanca Salgado Zapata</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.98</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="42">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Flat 101</t>
+          <t>Varadero Software Factory</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Blanca Salgado Zapata</t>
+          <t>Roberto Rodríguez Gijón</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="43">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bkool </t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1266,11 +1266,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Miguel Durán Pardo</t>
+          <t>Bismilah Langford Fuejo</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="44">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOTEC </t>
+          <t>Liferay</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1287,11 +1287,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Roberto Rodríguez Gijón</t>
+          <t>Carlos Rodrigo Ochoa Aedo</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="45">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Experience fighters</t>
+          <t>Thiga</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Heiko Vivas Molina</t>
+          <t>Víctor Camargo Reguera</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.58</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="46">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Celina Bonilla Martín</t>
+          <t>Nora Gloria Carnevale Lois</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Flat 101</t>
+          <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1350,11 +1350,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Miguel Durán Pardo</t>
+          <t>Celina Bonilla Martín</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Varadero Software Factory</t>
+          <t>Liferay</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1371,11 +1371,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Miguel Ángel Garrido Casado</t>
+          <t>Cristina Saldaña Gonzalvo</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.55</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="49">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
+          <t>Roberto Rodríguez Gijón</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="50">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t>Thiga</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
+          <t>Blanca Salgado Zapata</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.33</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="51">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Experience fighters</t>
+          <t>TaxDown</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1434,11 +1434,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Blanca Salgado Zapata</t>
+          <t>David Pérez</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="52">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bkool </t>
+          <t>Varadero Software Factory</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1455,11 +1455,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Roberto Rodríguez Gijón</t>
+          <t>Adrian Colinas fernandez</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="53">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOTEC </t>
+          <t>Flat 101</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1476,11 +1476,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Bismilah Langford Fuejo</t>
+          <t>Víctor Camargo Reguera</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="54">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Liferay</t>
+          <t xml:space="preserve">Bkool </t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1497,11 +1497,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Carlos Rodrigo Ochoa Aedo</t>
+          <t>Bismilah Langford Fuejo</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.36</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t xml:space="preserve">SOTEC </t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Víctor Camargo Reguera</t>
+          <t>Miguel Durán Pardo</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="56">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Thiga</t>
+          <t>Experience fighters</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1539,11 +1539,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Heiko Vivas Molina</t>
+          <t>Miguel Ángel Garrido Casado</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.24</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Varadero Software Factory</t>
+          <t>Flat 101</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1560,11 +1560,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
+          <t>Miguel Ángel Garrido Casado</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.52</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="58">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t xml:space="preserve">SOTEC </t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1581,11 +1581,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cristina Martínez Fernández</t>
+          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="59">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bkool </t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1602,11 +1602,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Laura García Diéguez</t>
+          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="60">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Thiga</t>
+          <t>Experience fighters</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1623,11 +1623,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
+          <t>Blanca Salgado Zapata</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.39</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="61">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Flat 101</t>
+          <t>TaxDown</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1644,11 +1644,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Carlos Rodrigo Ochoa Aedo</t>
+          <t>Roberto Rodríguez Gijón</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.39</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="62">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOTEC </t>
+          <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1665,11 +1665,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Víctor Camargo Reguera</t>
+          <t>Bismilah Langford Fuejo</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="63">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t xml:space="preserve">Bkool </t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Heiko Vivas Molina</t>
+          <t>Carlos Rodrigo Ochoa Aedo</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="64">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Experience fighters</t>
+          <t>Varadero Software Factory</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1707,11 +1707,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Nora Gloria Carnevale Lois</t>
+          <t>Víctor Camargo Reguera</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="65">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t>Liferay</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1728,11 +1728,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Yassir Elmalaki Hossain</t>
+          <t>Heiko Vivas Molina</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.53</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="66">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t>Thiga</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1749,11 +1749,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Miguel Ángel Garrido Casado</t>
+          <t>Adrian Colinas fernandez</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="67">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Liferay</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1770,11 +1770,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Bismilah Langford Fuejo</t>
+          <t>Cristina Martínez Fernández</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="68">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Varadero Software Factory</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1791,11 +1791,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Adrian Colinas fernandez</t>
+          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.59</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="69">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Flat 101</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOTEC </t>
+          <t>TaxDown</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1833,11 +1833,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>David Pérez</t>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="71">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t xml:space="preserve">Bkool </t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1854,11 +1854,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Nora Gloria Carnevale Lois</t>
+          <t>Laura García Diéguez</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="72">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bkool </t>
+          <t>Thiga</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1875,11 +1875,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cristina Saldaña Gonzalvo</t>
+          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.82</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="73">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Experience fighters</t>
+          <t>Flat 101</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1896,11 +1896,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Yassir Elmalaki Hossain</t>
+          <t>Carlos Rodrigo Ochoa Aedo</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="74">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Thiga</t>
+          <t xml:space="preserve">SOTEC </t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1917,11 +1917,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Laura García Diéguez</t>
+          <t>Víctor Camargo Reguera</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.35</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="75">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1938,11 +1938,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Celina Bonilla Martín</t>
+          <t>Heiko Vivas Molina</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="76">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Varadero Software Factory</t>
+          <t>Experience fighters</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1959,11 +1959,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Miguel Durán Pardo</t>
+          <t>Nora Gloria Carnevale Lois</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.36</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1980,11 +1980,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Miguel Ángel Garrido Casado</t>
+          <t>Yassir Elmalaki Hossain</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="78">
@@ -2001,11 +2001,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
+          <t>Miguel Ángel Garrido Casado</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="79">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t xml:space="preserve">SOTEC </t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2022,11 +2022,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Bismilah Langford Fuejo</t>
+          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="80">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Thiga</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2043,11 +2043,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Víctor Camargo Reguera</t>
+          <t>Blanca Salgado Zapata</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="81">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Heiko Vivas Molina</t>
+          <t>Roberto Rodríguez Gijón</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="82">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOTEC </t>
+          <t>Flat 101</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Adrian Colinas fernandez</t>
+          <t>Bismilah Langford Fuejo</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="83">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Experience fighters</t>
+          <t>Thiga</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2106,11 +2106,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Cristina Martínez Fernández</t>
+          <t>Carlos Rodrigo Ochoa Aedo</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="84">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Flat 101</t>
+          <t>Experience fighters</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2127,11 +2127,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>David Pérez</t>
+          <t>Víctor Camargo Reguera</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="85">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Nora Gloria Carnevale Lois</t>
+          <t>Heiko Vivas Molina</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="86">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t>TaxDown</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2169,11 +2169,11 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Cristina Saldaña Gonzalvo</t>
+          <t>Adrian Colinas fernandez</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="87">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2190,11 +2190,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Yassir Elmalaki Hossain</t>
+          <t>Cristina Martínez Fernández</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="88">
@@ -2211,11 +2211,11 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Miguel Durán Pardo</t>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="89">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2232,11 +2232,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
+          <t>David Pérez</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="90">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Flat 101</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2253,11 +2253,11 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Nora Gloria Carnevale Lois</t>
+          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.61</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="91">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t>Thiga</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2274,11 +2274,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Celina Bonilla Martín</t>
+          <t>Cristina Martínez Fernández</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="92">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Liferay</t>
+          <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2295,11 +2295,11 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Cristina Saldaña Gonzalvo</t>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="93">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t xml:space="preserve">SOTEC </t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2316,11 +2316,11 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Roberto Rodríguez Gijón</t>
+          <t>David Pérez</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Thiga</t>
+          <t>Experience fighters</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2337,11 +2337,11 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Blanca Salgado Zapata</t>
+          <t>Cristina Saldaña Gonzalvo</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.59</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="95">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2358,11 +2358,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>David Pérez</t>
+          <t>Yassir Elmalaki Hossain</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="96">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Varadero Software Factory</t>
+          <t>TaxDown</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2379,11 +2379,11 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Adrian Colinas fernandez</t>
+          <t>Laura García Diéguez</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="97">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Flat 101</t>
+          <t xml:space="preserve">Bkool </t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2400,11 +2400,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Víctor Camargo Reguera</t>
+          <t>Celina Bonilla Martín</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="98">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bkool </t>
+          <t>Varadero Software Factory</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2421,11 +2421,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Bismilah Langford Fuejo</t>
+          <t>Miguel Durán Pardo</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="99">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOTEC </t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2442,11 +2442,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Miguel Durán Pardo</t>
+          <t>Miguel Ángel Garrido Casado</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.58</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="100">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Experience fighters</t>
+          <t>Liferay</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2463,11 +2463,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Miguel Ángel Garrido Casado</t>
+          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="101">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOTEC </t>
+          <t>Thiga</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2526,11 +2526,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Laura García Diéguez</t>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.39</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t xml:space="preserve">SOTEC </t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2547,11 +2547,11 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
+          <t>Laura García Diéguez</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="105">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Thiga</t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2568,11 +2568,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Carlos Rodrigo Ochoa Aedo</t>
+          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="106">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Víctor Camargo Reguera</t>
+          <t>Bismilah Langford Fuejo</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Flat 101</t>
+          <t>TaxDown</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2610,11 +2610,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Heiko Vivas Molina</t>
+          <t>Carlos Rodrigo Ochoa Aedo</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="108">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2631,11 +2631,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Adrian Colinas fernandez</t>
+          <t>Víctor Camargo Reguera</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="109">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Flat 101</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2652,11 +2652,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>David Pérez</t>
+          <t>Heiko Vivas Molina</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.23</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2673,11 +2673,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Nora Gloria Carnevale Lois</t>
+          <t>Adrian Colinas fernandez</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="111">
@@ -2694,11 +2694,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Celina Bonilla Martín</t>
+          <t>Nora Gloria Carnevale Lois</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="112">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOTEC </t>
+          <t>Sopra Steria</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2715,11 +2715,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
+          <t>Cristina Saldaña Gonzalvo</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.34</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="113">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2740,7 +2740,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bkool </t>
+          <t>Liferay</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2757,11 +2757,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Víctor Camargo Reguera</t>
+          <t>David Pérez</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="115">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Varadero Software Factory</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2778,11 +2778,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Heiko Vivas Molina</t>
+          <t>Adrian Colinas fernandez</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="116">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Flat 101</t>
+          <t>Thiga</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2799,11 +2799,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Adrian Colinas fernandez</t>
+          <t>Celina Bonilla Martín</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="117">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t>TaxDown</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2820,11 +2820,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Cristina Martínez Fernández</t>
+          <t>Yassir Elmalaki Hossain</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.36</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="118">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Experience fighters</t>
+          <t>Varadero Software Factory</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2841,11 +2841,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>David Pérez</t>
+          <t>Bismilah Langford Fuejo</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="119">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t>Flat 101</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2862,11 +2862,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Nora Gloria Carnevale Lois</t>
+          <t>Blanca Salgado Zapata</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.26</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="120">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t xml:space="preserve">Bkool </t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2883,11 +2883,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Cristina Saldaña Gonzalvo</t>
+          <t>Miguel Durán Pardo</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="121">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Thiga</t>
+          <t xml:space="preserve">SOTEC </t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2904,11 +2904,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Yassir Elmalaki Hossain</t>
+          <t>Roberto Rodríguez Gijón</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="122">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Liferay</t>
+          <t>Experience fighters</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2925,11 +2925,11 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Laura García Diéguez</t>
+          <t>Heiko Vivas Molina</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.04</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="123">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>David Pérez</t>
+          <t>Heiko Vivas Molina</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t xml:space="preserve">Bkool </t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2967,11 +2967,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
+          <t>Adrian Colinas fernandez</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.86</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="125">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Liferay</t>
+          <t>Flat 101</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -2988,11 +2988,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Yassir Elmalaki Hossain</t>
+          <t>Cristina Martínez Fernández</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="126">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t xml:space="preserve">SOTEC </t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3009,11 +3009,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Cristina Saldaña Gonzalvo</t>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="127">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Thiga</t>
+          <t>Experience fighters</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3030,11 +3030,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Nora Gloria Carnevale Lois</t>
+          <t>David Pérez</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="128">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3051,11 +3051,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Miguel Durán Pardo</t>
+          <t>Nora Gloria Carnevale Lois</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.82</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="129">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Varadero Software Factory</t>
+          <t>TaxDown</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Laura García Diéguez</t>
+          <t>Cristina Saldaña Gonzalvo</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Flat 101</t>
+          <t>Varadero Software Factory</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3093,11 +3093,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Celina Bonilla Martín</t>
+          <t>Yassir Elmalaki Hossain</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.6</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="131">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bkool </t>
+          <t>Thiga</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3114,11 +3114,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Miguel Ángel Garrido Casado</t>
+          <t>Laura García Diéguez</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="132">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOTEC </t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3135,11 +3135,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Blanca Salgado Zapata</t>
+          <t>Celina Bonilla Martín</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.59</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Experience fighters</t>
+          <t>Liferay</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Roberto Rodríguez Gijón</t>
+          <t>Miguel Durán Pardo</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.58</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -3195,47 +3195,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Thiga</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Experience fighters</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>NATEEVO Digital S.L.U</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Varadero Software Factory</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>TaxDown</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Bkool </t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Liferay</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Thiga</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>TaxDown</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>NATEEVO Digital S.L.U</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Varadero Software Factory</t>
         </is>
       </c>
     </row>
@@ -3250,52 +3250,52 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Cristina Saldaña Gonzalvo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Yassir Elmalaki Hossain</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Laura García Diéguez</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Celina Bonilla Martín</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Miguel Durán Pardo</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Miguel Ángel Garrido Casado</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Blanca Salgado Zapata</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Roberto Rodríguez Gijón</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Carlos Rodrigo Ochoa Aedo</t>
         </is>
       </c>
     </row>
@@ -3305,57 +3305,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
+          <t>Adrian Colinas fernandez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Bismilah Langford Fuejo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Cristina Saldaña Gonzalvo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cristina Martínez Fernández</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Carlos Rodrigo Ochoa Aedo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>David Pérez</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>Heiko Vivas Molina</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Bismilah Langford Fuejo</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Carlos Rodrigo Ochoa Aedo</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Blanca Salgado Zapata</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Adrian Colinas fernandez</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Cristina Martínez Fernández</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Cristina Saldaña Gonzalvo</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Roberto Rodríguez Gijón</t>
+          <t>Nora Gloria Carnevale Lois</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>David Pérez</t>
+          <t>Víctor Camargo Reguera</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Víctor Camargo Reguera</t>
+          <t>Laura García Diéguez</t>
         </is>
       </c>
     </row>
@@ -3365,57 +3365,57 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
+          <t>Celina Bonilla Martín</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Blanca Salgado Zapata</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Nora Gloria Carnevale Lois</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Roberto Rodríguez Gijón</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>David Pérez</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Laura García Diéguez</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Miguel Durán Pardo</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Cristina Saldaña Gonzalvo</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>Miguel Ángel Garrido Casado</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Cristina Saldaña Gonzalvo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Blanca Salgado Zapata</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Yassir Elmalaki Hossain</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Bismilah Langford Fuejo</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Cristina Martínez Fernández</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Laura García Diéguez</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Miguel Durán Pardo</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Roberto Rodríguez Gijón</t>
         </is>
       </c>
     </row>
@@ -3425,57 +3425,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Yassir Elmalaki Hossain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Miguel Ángel Garrido Casado</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Víctor Camargo Reguera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Celina Bonilla Martín</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Miguel Durán Pardo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Roberto Rodríguez Gijón</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>Blanca Salgado Zapata</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Roberto Rodríguez Gijón</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Heiko Vivas Molina</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Miguel Durán Pardo</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cristina Saldaña Gonzalvo</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>David Pérez</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Adrian Colinas fernandez</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Celina Bonilla Martín</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Yassir Elmalaki Hossain</t>
+          <t>Bismilah Langford Fuejo</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>Carlos Rodrigo Ochoa Aedo</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Bismilah Langford Fuejo</t>
         </is>
       </c>
     </row>
@@ -3485,57 +3485,57 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Víctor Camargo Reguera</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Miguel Durán Pardo</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Blanca Salgado Zapata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Miguel Ángel Garrido Casado</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nora Gloria Carnevale Lois</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Celina Bonilla Martín</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Adrian Colinas fernandez</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>David Pérez</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Roberto Rodríguez Gijón</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Bismilah Langford Fuejo</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Blanca Salgado Zapata</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Roberto Rodríguez Gijón</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Celina Bonilla Martín</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Carlos Rodrigo Ochoa Aedo</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Víctor Camargo Reguera</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Heiko Vivas Molina</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Miguel Ángel Garrido Casado</t>
+          <t>Cristina Saldaña Gonzalvo</t>
         </is>
       </c>
     </row>
@@ -3545,57 +3545,57 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Miguel Ángel Garrido Casado</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adrian Colinas fernandez</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Blanca Salgado Zapata</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bismilah Langford Fuejo</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Víctor Camargo Reguera</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Roberto Rodríguez Gijón</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Cristina Martínez Fernández</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>Carlos Rodrigo Ochoa Aedo</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Víctor Camargo Reguera</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Nora Gloria Carnevale Lois</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Laura García Diéguez</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cristina Martínez Fernández</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Bismilah Langford Fuejo</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Heiko Vivas Molina</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Miguel Ángel Garrido Casado</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Yassir Elmalaki Hossain</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
         </is>
       </c>
     </row>
@@ -3605,57 +3605,57 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Carlos Rodrigo Ochoa Aedo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Víctor Camargo Reguera</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nora Gloria Carnevale Lois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Cristina Martínez Fernández</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>David Pérez</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Yassir Elmalaki Hossain</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Cristina Saldaña Gonzalvo</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Adrian Colinas fernandez</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Heiko Vivas Molina</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Laura García Diéguez</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Miguel Ángel Garrido Casado</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Laura García Diéguez</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Celina Bonilla Martín</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Nora Gloria Carnevale Lois</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Miguel Durán Pardo</t>
         </is>
       </c>
     </row>
@@ -3665,57 +3665,57 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Bismilah Langford Fuejo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Carlos Rodrigo Ochoa Aedo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Víctor Camargo Reguera</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Blanca Salgado Zapata</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cristina Martínez Fernández</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Heiko Vivas Molina</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Adrian Colinas fernandez</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>David Pérez</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Adrian Colinas fernandez</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Cristina Martínez Fernández</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Heiko Vivas Molina</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Bismilah Langford Fuejo</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Miguel Durán Pardo</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Yassir Elmalaki Hossain</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Víctor Camargo Reguera</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Cristina Saldaña Gonzalvo</t>
+          <t>Roberto Rodríguez Gijón</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Nora Gloria Carnevale Lois</t>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
         </is>
       </c>
     </row>
@@ -3725,49 +3725,49 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Víctor Camargo Reguera</t>
+          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>David Pérez</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cristina Martínez Fernández</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cristina Saldaña Gonzalvo</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yassir Elmalaki Hossain</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>Miguel Durán Pardo</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Laura García Diéguez</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>Miguel Ángel Garrido Casado</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Bismilah Langford Fuejo</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Nora Gloria Carnevale Lois</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Cristina Saldaña Gonzalvo</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Roberto Rodríguez Gijón</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Blanca Salgado Zapata</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>David Pérez</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>Celina Bonilla Martín</t>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Adrian Colinas fernandez</t>
+          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
         </is>
       </c>
     </row>
@@ -3795,47 +3795,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bismilah Langford Fuejo</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Adrian Colinas fernandez</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cristina Martínez Fernández</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Carlos Rodrigo Ochoa Aedo</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>Víctor Camargo Reguera</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Celina Bonilla Martín</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>David Pérez</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Carlos Rodrigo Ochoa Aedo</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Nora Gloria Carnevale Lois</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Adrian Colinas fernandez</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Cristina Martínez Fernández</t>
         </is>
       </c>
     </row>
@@ -3845,57 +3845,57 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Blanca Salgado Zapata</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Roberto Rodríguez Gijón</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Celina Bonilla Martín</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Heiko Vivas Molina</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cristina Saldaña Gonzalvo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Carlos Rodrigo Ochoa Aedo</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bismilah Langford Fuejo</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Yassir Elmalaki Hossain</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>Adrian Colinas fernandez</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Miguel Durán Pardo</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>David Pérez</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Víctor Camargo Reguera</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Carlos Rodrigo Ochoa Aedo</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Laura García Diéguez</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Nora Gloria Carnevale Lois</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Yassir Elmalaki Hossain</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Cristina Saldaña Gonzalvo</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Cristina Martínez Fernández</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Heiko Vivas Molina</t>
         </is>
       </c>
     </row>
@@ -3905,57 +3905,57 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Cristina Martínez Fernández</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Laura García Diéguez</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>David Pérez</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Heiko Vivas Molina</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Nora Gloria Carnevale Lois</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yassir Elmalaki Hossain</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Cristina Saldaña Gonzalvo</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>Celina Bonilla Martín</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Blanca Salgado Zapata</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Roberto Rodríguez Gijón</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Miguel Ángel Garrido Casado</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>David Pérez</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yassir Elmalaki Hossain</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Cristina Saldaña Gonzalvo</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Nora Gloria Carnevale Lois</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Adrian Colinas fernandez</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Miguel Durán Pardo</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Laura García Diéguez</t>
         </is>
       </c>
     </row>
@@ -3970,7 +3970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3986,87 +3986,92 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Cristina Saldaña Gonzalvo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Yassir Elmalaki Hossain</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Laura García Diéguez</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Celina Bonilla Martín</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Miguel Durán Pardo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Miguel Ángel Garrido Casado</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Joaquina Egozcue Pedreira </t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Ricardo Terceiro Villaseca </t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Blanca Salgado Zapata</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Roberto Rodríguez Gijón</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Bismilah Langford Fuejo</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Carlos Rodrigo Ochoa Aedo</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Bismilah Langford Fuejo</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Víctor Camargo Reguera</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Heiko Vivas Molina</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Adrian Colinas fernandez</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Cristina Martínez Fernández</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>David Pérez</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Cristina Saldaña Gonzalvo</t>
         </is>
       </c>
     </row>
@@ -4086,47 +4091,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Thiga</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Experience fighters</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NATEEVO Digital S.L.U</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Varadero Software Factory</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>TaxDown</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bkool </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Liferay</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Thiga</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>TaxDown</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NATEEVO Digital S.L.U</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Varadero Software Factory</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -4136,71 +4141,73 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Thiga</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Liferay</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOTEC </t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bkool </t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>TaxDown</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Flat 101</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>TaxDown</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bkool </t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Experience fighters</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Varadero Software Factory</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOTEC </t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Liferay</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>NATEEVO Digital S.L.U</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Thiga</t>
         </is>
       </c>
     </row>
@@ -4208,66 +4215,67 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thiga</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Minsait</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Liferay</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Varadero Software Factory</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Flat 101</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>TaxDown</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bkool </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t xml:space="preserve">SOTEC </t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Liferay</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Flat 101</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bkool </t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Varadero Software Factory</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Experience fighters</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Thiga</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Experience fighters</t>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
         </is>
       </c>
     </row>
@@ -4276,201 +4284,204 @@
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Flat 101</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Experience fighters</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOTEC </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bkool </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>NATEEVO Digital S.L.U</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>TaxDown</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Varadero Software Factory</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Liferay</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>Thiga</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bkool </t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Flat 101</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOTEC </t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NATEEVO Digital S.L.U</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Varadero Software Factory</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Experience fighters</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Liferay</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Liferay</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
+          <t>NATEEVO Digital S.L.U</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOTEC </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Experience fighters</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Thiga</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bkool </t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>Flat 101</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Varadero Software Factory</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>TaxDown</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>NATEEVO Digital S.L.U</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Experience fighters</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bkool </t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Liferay</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOTEC </t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Thiga</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>TaxDown</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Experience fighters</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NATEEVO Digital S.L.U</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bkool </t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Flat 101</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOTEC </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Experience fighters</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>TaxDown</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NATEEVO Digital S.L.U</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bkool </t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Varadero Software Factory</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Liferay</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Thiga</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Varadero Software Factory</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Flat 101</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Liferay</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOTEC </t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Minsait</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -4478,131 +4489,133 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Experience fighters</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Experience fighters</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bkool </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Liferay</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Thiga</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>TaxDown</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Varadero Software Factory</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Liferay</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Flat 101</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOTEC </t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
           <t>Sopra Steria</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Flat 101</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOTEC </t>
-        </is>
-      </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bkool </t>
-        </is>
-      </c>
+          <t>TaxDown</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Varadero Software Factory</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Liferay</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOTEC </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bkool </t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Flat 101</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Thiga</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Experience fighters</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Varadero Software Factory</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>TaxDown</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Thiga</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bkool </t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOTEC </t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Experience fighters</t>
-        </is>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Flat 101</t>
+          <t>NATEEVO Digital S.L.U</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t>Liferay</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Minsait</t>
         </is>
       </c>
     </row>
@@ -4610,66 +4623,67 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Experience fighters</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Sopra Steria</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NATEEVO Digital S.L.U</t>
+          <t>TaxDown</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOTEC </t>
+          <t xml:space="preserve">Bkool </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Experience fighters</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>Varadero Software Factory</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Liferay</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Thiga</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
+          <t>Flat 101</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bkool </t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Flat 101</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Varadero Software Factory</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t>Thiga</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Liferay</t>
+          <t>NATEEVO Digital S.L.U</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOTEC </t>
         </is>
       </c>
     </row>
@@ -4679,131 +4693,133 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TaxDown</t>
+          <t>Liferay</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">SOTEC </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Liferay</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Sopra Steria</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t xml:space="preserve">Bkool </t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Experience fighters</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>TaxDown</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Flat 101</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>NATEEVO Digital S.L.U</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Varadero Software Factory</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>Thiga</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Experience fighters</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Flat 101</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>NATEEVO Digital S.L.U</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Varadero Software Factory</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Minsait</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TaxDown</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Thiga</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bkool </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Flat 101</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOTEC </t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Varadero Software Factory</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NATEEVO Digital S.L.U</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Experience fighters</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Minsait</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Thiga</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
         <is>
           <t>Liferay</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOTEC </t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Sopra Steria</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bkool </t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Varadero Software Factory</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Flat 101</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>NATEEVO Digital S.L.U</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Experience fighters</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>TaxDown</t>
         </is>
       </c>
     </row>
@@ -4813,64 +4829,65 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>NATEEVO Digital S.L.U</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TaxDown</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Varadero Software Factory</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Thiga</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Minsait</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Liferay</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Varadero Software Factory</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Flat 101</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>TaxDown</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bkool </t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>NATEEVO Digital S.L.U</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOTEC </t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Experience fighters</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Sopra Steria</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bkool </t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Sopra Steria</t>
+          <t>Flat 101</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Minsait</t>
+          <t xml:space="preserve">SOTEC </t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Experience fighters</t>
         </is>
       </c>
     </row>
@@ -4885,7 +4902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5670,6 +5687,46 @@
         <v>0.34</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cristina Rodríguez Cámara </t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
